--- a/InputData/fuels/BS/BAU Subsidies_HK.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies_HK.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\eps-1.4.3-us-v2\HK_fuels\HK\BS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\fuels\BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_448BD222AAAC808086E8436CC1D527963024A68A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="110" windowWidth="19430" windowHeight="9030" firstSheet="2" activeTab="3"/>
+    <workbookView minimized="1" xWindow="9915" yWindow="345" windowWidth="10455" windowHeight="10920" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,11 +18,12 @@
     <sheet name="BS-BSpUEO" sheetId="11" r:id="rId3"/>
     <sheet name="BS-BSpUECB" sheetId="16" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -271,12 +273,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -284,7 +286,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -292,14 +294,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -307,7 +309,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -315,20 +317,20 @@
       <b/>
       <sz val="12"/>
       <color theme="4"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -428,14 +430,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="2"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="3"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="4"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Table title" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,7 +453,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -770,36 +772,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="2"/>
-    <col min="2" max="2" width="83.26953125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="83.28515625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -807,140 +809,140 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="1">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="B31" s="9"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="2">
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" s="2" t="s">
         <v>27</v>
       </c>
@@ -948,8 +950,8 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -957,7 +959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -967,14 +969,14 @@
       <selection activeCell="A18" sqref="A18:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="26.54296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="3" width="26.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
@@ -1194,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" s="9" customFormat="1">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="9" customFormat="1">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
@@ -1478,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1698,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1808,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -1918,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2028,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="9" customFormat="1">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -2170,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" s="9" customFormat="1">
       <c r="A11" s="9" t="s">
         <v>38</v>
       </c>
@@ -2312,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -2422,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -2532,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="9" customFormat="1">
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
@@ -2674,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -2784,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -2894,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" s="9" customFormat="1">
       <c r="A17" s="9" t="s">
         <v>44</v>
       </c>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
@@ -3114,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -3224,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -3334,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -3444,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36">
       <c r="A22" s="2" t="s">
         <v>75</v>
       </c>
@@ -3561,7 +3563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3571,13 +3573,13 @@
       <selection activeCell="B14" sqref="B14:AJ17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="3" width="26.54296875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="26.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -3691,7 +3693,7 @@
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
@@ -3805,7 +3807,7 @@
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -3919,7 +3921,7 @@
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
@@ -4065,7 +4067,7 @@
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -4187,7 +4189,7 @@
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
@@ -4333,7 +4335,7 @@
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40">
       <c r="A7" s="3" t="s">
         <v>50</v>
       </c>
@@ -4447,7 +4449,7 @@
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
@@ -4561,7 +4563,7 @@
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -4675,7 +4677,7 @@
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
@@ -4789,7 +4791,7 @@
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
@@ -4903,7 +4905,7 @@
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
@@ -5017,7 +5019,7 @@
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -5163,7 +5165,7 @@
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
@@ -5277,7 +5279,7 @@
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40">
       <c r="A15" s="3" t="s">
         <v>76</v>
       </c>
@@ -5389,7 +5391,7 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40">
       <c r="A16" s="3" t="s">
         <v>77</v>
       </c>
@@ -5501,7 +5503,7 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36">
       <c r="A17" s="3" t="s">
         <v>78</v>
       </c>
@@ -5618,22 +5620,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:AJ17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -5745,7 +5747,7 @@
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -5857,7 +5859,7 @@
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
@@ -5969,7 +5971,7 @@
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
@@ -6081,7 +6083,7 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
@@ -6193,7 +6195,7 @@
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
@@ -6305,7 +6307,7 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -6449,7 +6451,7 @@
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -6593,7 +6595,7 @@
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -6705,7 +6707,7 @@
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -6849,7 +6851,7 @@
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -6961,7 +6963,7 @@
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="A12" s="3" t="s">
         <v>68</v>
       </c>
@@ -7073,7 +7075,7 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
@@ -7185,7 +7187,7 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
@@ -7297,7 +7299,7 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="A15" s="3" t="s">
         <v>76</v>
       </c>
@@ -7407,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="A16" s="3" t="s">
         <v>77</v>
       </c>
@@ -7517,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36">
       <c r="A17" s="3" t="s">
         <v>78</v>
       </c>
@@ -7634,17 +7636,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="40ddae6b2e673ca4350ee4f9e73461e0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e116a0b9e2b9814d46da3cedae238ac" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="7889d872-e2a2-4afb-87bc-97561eced75f"/>
     <xsd:import namespace="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
@@ -7678,12 +7680,12 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="18" nillable="true" ma:displayName="统一合规性策略属性" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="18" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="19" nillable="true" ma:displayName="统一合规性策略 UI 操作" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="19" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -7692,7 +7694,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7889d872-e2a2-4afb-87bc-97561eced75f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="共享对象:" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -7711,7 +7713,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="共享对象详细信息" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -7786,8 +7788,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="内容类型"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="标题"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -7877,27 +7879,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CE6F0EE-5AAC-4784-9841-3DA7A373F302}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E780B8-6EE6-4C9D-AC7F-91D767D4F21E}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5A52DCF-7D69-46D0-98F8-C2A7CC09D947}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -7913,4 +7903,16 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FF0DEC9-5FE7-4065-8090-B37248E679A7}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CE6F0EE-5AAC-4784-9841-3DA7A373F302}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>